--- a/rb/greta_effect/gt_usa_log.xlsx
+++ b/rb/greta_effect/gt_usa_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlee/Documents/GitHub/others/playground/rb/greta_effect/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CB3A41-37C0-9E46-AB01-2955AF68F094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A804F0-0F39-9849-91D9-E02143EE6F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34540" yWindow="2940" windowWidth="28040" windowHeight="17440" xr2:uid="{AA4E7FC2-0F7E-6446-8805-2218ABF8D53A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>yr</t>
   </si>
@@ -81,6 +81,39 @@
   </si>
   <si>
     <t>Hampton</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Washington D.C.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Virginia</t>
   </si>
 </sst>
 </file>
@@ -432,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8EC613-DAB3-A340-AFF7-462BA2290FC1}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +486,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -467,8 +503,11 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -481,8 +520,11 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -495,8 +537,11 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -509,8 +554,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -523,8 +571,11 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -537,8 +588,11 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -551,8 +605,11 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -565,8 +622,11 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -579,8 +639,11 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -593,8 +656,11 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -607,8 +673,11 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -621,8 +690,11 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -635,8 +707,11 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -649,8 +724,11 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -662,6 +740,9 @@
       </c>
       <c r="D16" t="s">
         <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
